--- a/tests/Test_plates/Test_1/Test_plate_3_repeat_1.xlsx
+++ b/tests/Test_plates/Test_1/Test_plate_3_repeat_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/sensing_array_paper_2019/tests/Test_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/array_sensing/tests/Test_plates/Test_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CA4DFB-0BBD-064B-9E3D-420657401991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9EFB20-24FE-5C48-9664-5211D0CE09CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="1700" windowWidth="26040" windowHeight="13740" xr2:uid="{41A7F393-3D56-DF43-9587-23E3070C25E8}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>Plate layout</t>
   </si>
@@ -218,9 +220,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>Median min fluor readings</t>
   </si>
   <si>
     <t>Median max fluor (blank) readings</t>
@@ -296,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -333,31 +332,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -432,15 +411,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -763,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5946A6E9-3215-F94D-B2FD-5E1287B2E0AD}">
   <dimension ref="A3:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q77" sqref="D73:Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2120,252 +2090,20 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="28" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>18</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C49" t="s">
         <v>20</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D49" t="s">
         <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <f xml:space="preserve"> MEDIAN(B24, H16, J24, L24, X16)</f>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="30"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="10"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="29"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="30">
-        <f xml:space="preserve"> MEDIAN(L16, N16, N24, P24, T24)</f>
-        <v>172</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="30"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="10">
-        <f xml:space="preserve"> MEDIAN(D24, H24, J16, R16, X24)</f>
-        <v>178</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="I44" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44" t="s">
-        <v>31</v>
-      </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="I45" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <f xml:space="preserve"> MEDIAN(B16, F16, P16, R24, V16)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>20</v>
       </c>
       <c r="E49" t="s">
         <v>24</v>
@@ -2408,9 +2146,17 @@
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D50">
+      <c r="B50">
+        <f xml:space="preserve"> MEDIAN(D16, F24, T16, V24)</f>
+        <v>125</v>
+      </c>
+      <c r="C50">
         <f xml:space="preserve"> MEDIAN(D17, F25, T17, V25)</f>
         <v>13304.5</v>
+      </c>
+      <c r="D50">
+        <f xml:space="preserve"> MEDIAN(D18, F26, T18, V26)</f>
+        <v>144</v>
       </c>
       <c r="E50">
         <f xml:space="preserve"> MEDIAN(D19, T19, F27, V27)</f>
@@ -2466,8 +2212,8 @@
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="32" t="s">
-        <v>64</v>
+      <c r="B53" s="29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
@@ -2522,60 +2268,60 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <f xml:space="preserve"> (B25 - $B$37) / (D50 - $B$37)</f>
-        <v>0.87373103684270559</v>
+        <f xml:space="preserve"> (B25 - B50) / (C50 - B50)</f>
+        <v>0.87400887742327094</v>
       </c>
       <c r="E55">
-        <f xml:space="preserve"> (B27 - $B$37) / (E50 - $B$37)</f>
-        <v>0.92022263450834885</v>
+        <f xml:space="preserve"> (B27 - B50) / (E50 - B50)</f>
+        <v>0.92797319932998323</v>
       </c>
       <c r="F55">
-        <f xml:space="preserve"> (B28 - $B$37) / (F50 - $B$37)</f>
-        <v>0.90449991788471018</v>
+        <f xml:space="preserve"> (B28 - B50) / (F50 - B50)</f>
+        <v>0.90472679610059803</v>
       </c>
       <c r="G55">
-        <f xml:space="preserve"> (B29 - $B$37) / (G50 - $B$37)</f>
-        <v>0.73464586428925216</v>
+        <f xml:space="preserve"> (B29 - B50) / (G50 - B50)</f>
+        <v>0.73512143872442992</v>
       </c>
       <c r="H55">
-        <f xml:space="preserve"> (B30 - $B$37) / (H50 - $B$37)</f>
-        <v>0.66439390670176501</v>
+        <f xml:space="preserve"> (B30 - B50) / (H50 - B50)</f>
+        <v>0.66523180233308943</v>
       </c>
       <c r="I55">
-        <f xml:space="preserve"> (B31 - $B$37) / (I50 - $B$37)</f>
-        <v>0.50077639751552794</v>
+        <f xml:space="preserve"> (B31 - B50) / (I50 - B50)</f>
+        <v>0.50633397312859885</v>
       </c>
       <c r="J55">
-        <f xml:space="preserve"> (C24 - $B$37) / (J50 - $B$37)</f>
-        <v>0.54489516864175025</v>
+        <f xml:space="preserve"> (C24 - B50) / (J50 - B50)</f>
+        <v>0.54788317862802804</v>
       </c>
       <c r="K55">
-        <f xml:space="preserve"> (C25 - $B$37) / (K50 - $B$37)</f>
-        <v>0.53846153846153844</v>
+        <f xml:space="preserve"> (C25 - B50) / (K50 - B50)</f>
+        <v>0.55179282868525892</v>
       </c>
       <c r="L55">
-        <f xml:space="preserve"> (C26 - $B$37) / (L50 - $B$37)</f>
-        <v>0.40093240093240096</v>
+        <f xml:space="preserve"> (C26 - B50) / (L50 - B50)</f>
+        <v>0.41228356746161388</v>
       </c>
       <c r="M55">
-        <f xml:space="preserve"> (C27 - $B$37) / (M50 - $B$37)</f>
-        <v>0.60044209257150516</v>
+        <f xml:space="preserve"> (C27 - B50) / (M50 - B50)</f>
+        <v>0.60198838993794623</v>
       </c>
       <c r="N55">
-        <f xml:space="preserve"> (C28 - $B$37) / (N50 - $B$37)</f>
-        <v>0.3123489024272314</v>
+        <f xml:space="preserve"> (C28 - B50) / (N50 - B50)</f>
+        <v>0.31618424848543131</v>
       </c>
       <c r="O55">
-        <f xml:space="preserve"> (C29 - $B$37) / (O50 - $B$37)</f>
-        <v>0.27591016878225694</v>
+        <f xml:space="preserve"> (C29 - B50) / (O50 - B50)</f>
+        <v>0.27882745207001947</v>
       </c>
       <c r="P55">
-        <f xml:space="preserve"> (C30 - $B$37) / (P50 - $B$37)</f>
-        <v>0.30313556139692077</v>
+        <f xml:space="preserve"> (C30 - B50) / (P50 - B50)</f>
+        <v>0.30502761913678494</v>
       </c>
       <c r="Q55">
-        <f xml:space="preserve"> (C31 - $B$37) / (Q50 - $B$37)</f>
-        <v>0.22604422604422605</v>
+        <f xml:space="preserve"> (C31 - B50) / (Q50 - B50)</f>
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
@@ -2583,60 +2329,60 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <f xml:space="preserve"> (H17 - $B$37) / (D50 - $B$37)</f>
-        <v>0.83236378844910841</v>
+        <f xml:space="preserve"> (H17 - B50) / (C50 - B50)</f>
+        <v>0.83273265298380061</v>
       </c>
       <c r="E56">
-        <f xml:space="preserve"> (H19 - $B$37) / (E50 - $B$37)</f>
-        <v>0.71243042671614099</v>
+        <f xml:space="preserve"> (H19 - B50) / (E50 - B50)</f>
+        <v>0.74036850921273034</v>
       </c>
       <c r="F56">
-        <f xml:space="preserve"> (H20 - $B$37) / (F50 - $B$37)</f>
-        <v>0.92034816882903592</v>
+        <f xml:space="preserve"> (H20 - B50) / (F50 - B50)</f>
+        <v>0.92053739657573519</v>
       </c>
       <c r="G56">
-        <f xml:space="preserve"> (H21 - $B$37) / (G50 - $B$37)</f>
-        <v>0.7847944526993561</v>
+        <f xml:space="preserve"> (H21 - B50) / (G50 - B50)</f>
+        <v>0.78518014955812376</v>
       </c>
       <c r="H56">
-        <f xml:space="preserve"> (H22 - $B$37) / (H50 - $B$37)</f>
-        <v>0.92521468950934282</v>
+        <f xml:space="preserve"> (H22 - B50) / (H50 - B50)</f>
+        <v>0.92540140329731824</v>
       </c>
       <c r="I56">
-        <f xml:space="preserve"> (H23 - $B$37) / (I50 - $B$37)</f>
-        <v>0.63586956521739135</v>
+        <f xml:space="preserve"> (H23 - B50) / (I50 - B50)</f>
+        <v>0.63992322456813822</v>
       </c>
       <c r="J56">
-        <f xml:space="preserve"> (I16 - $B$37) / (J50 - $B$37)</f>
-        <v>0.51185050136736554</v>
+        <f xml:space="preserve"> (I16 - B50) / (J50 - B50)</f>
+        <v>0.51505546751188591</v>
       </c>
       <c r="K56">
-        <f xml:space="preserve"> (I17 - $B$37) / (K50 - $B$37)</f>
-        <v>0.53230769230769226</v>
+        <f xml:space="preserve"> (I17 - B50) / (K50 - B50)</f>
+        <v>0.54581673306772904</v>
       </c>
       <c r="L56">
-        <f xml:space="preserve"> (I18 - $B$37) / (L50 - $B$37)</f>
-        <v>0.39826839826839827</v>
+        <f xml:space="preserve"> (I18 - B50) / (L50 - B50)</f>
+        <v>0.40967004246978111</v>
       </c>
       <c r="M56">
-        <f xml:space="preserve"> (I19 - $B$37) / (M50 - $B$37)</f>
-        <v>0.54377386295130281</v>
+        <f xml:space="preserve"> (I19 - B50) / (M50 - B50)</f>
+        <v>0.54553946753853344</v>
       </c>
       <c r="N56">
-        <f xml:space="preserve"> (I20 - $B$37) / (N50 - $B$37)</f>
-        <v>0.36959675079779519</v>
+        <f xml:space="preserve"> (I20 - B50) / (N50 - B50)</f>
+        <v>0.37311279930762575</v>
       </c>
       <c r="O56">
-        <f xml:space="preserve"> (I21 - $B$37) / (O50 - $B$37)</f>
-        <v>0.30129725205746966</v>
+        <f xml:space="preserve"> (I21 - B50) / (O50 - B50)</f>
+        <v>0.30411225340372328</v>
       </c>
       <c r="P56">
-        <f xml:space="preserve"> (I22 - $B$37) / (P50 - $B$37)</f>
-        <v>0.41550882463387157</v>
+        <f xml:space="preserve"> (I22 - B50) / (P50 - B50)</f>
+        <v>0.41709577754891863</v>
       </c>
       <c r="Q56">
-        <f xml:space="preserve"> (I23 - $B$37) / (Q50 - $B$37)</f>
-        <v>0.36363636363636365</v>
+        <f xml:space="preserve"> (I23 - B50) / (Q50 - B50)</f>
+        <v>0.44301075268817203</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
@@ -2644,60 +2390,60 @@
         <v>3</v>
       </c>
       <c r="D57">
-        <f xml:space="preserve"> (J25 - $B$37) / (D50 - $B$37)</f>
-        <v>0.90315957568153304</v>
+        <f xml:space="preserve"> (J25 - B50) / (C50 - B50)</f>
+        <v>0.90337266208885014</v>
       </c>
       <c r="E57">
-        <f xml:space="preserve"> (J27 - $B$37) / (E50 - $B$37)</f>
-        <v>0.80519480519480524</v>
+        <f xml:space="preserve"> (J27 - B50) / (E50 - B50)</f>
+        <v>0.82412060301507539</v>
       </c>
       <c r="F57">
-        <f xml:space="preserve"> (J28 - $B$37) / (F50 - $B$37)</f>
-        <v>0.90277549679750368</v>
+        <f xml:space="preserve"> (J28 - B50) / (F50 - B50)</f>
+        <v>0.90300647169656756</v>
       </c>
       <c r="G57">
-        <f xml:space="preserve"> (J29 - $B$37) / (G50 - $B$37)</f>
-        <v>0.79086181277860323</v>
+        <f xml:space="preserve"> (J29 - B50) / (G50 - B50)</f>
+        <v>0.79123663556022494</v>
       </c>
       <c r="H57">
-        <f xml:space="preserve"> (J30 - $B$37) / (H50 - $B$37)</f>
-        <v>0.72109782937038791</v>
+        <f xml:space="preserve"> (J30 - B50) / (H50 - B50)</f>
+        <v>0.721794154362705</v>
       </c>
       <c r="I57">
-        <f xml:space="preserve"> (J31 - $B$37) / (I50 - $B$37)</f>
-        <v>0.56560559006211175</v>
+        <f xml:space="preserve"> (J31 - B50) / (I50 - B50)</f>
+        <v>0.5704414587332054</v>
       </c>
       <c r="J57">
-        <f xml:space="preserve"> (K24 - $B$37) / (J50 - $B$37)</f>
-        <v>0.57201458523245219</v>
+        <f xml:space="preserve"> (K24 - B50) / (J50 - B50)</f>
+        <v>0.5748245415440344</v>
       </c>
       <c r="K57">
-        <f xml:space="preserve"> (K25 - $B$37) / (K50 - $B$37)</f>
-        <v>0.4482051282051282</v>
+        <f xml:space="preserve"> (K25 - B50) / (K50 - B50)</f>
+        <v>0.46414342629482069</v>
       </c>
       <c r="L57">
-        <f xml:space="preserve"> (K26 - $B$37) / (L50 - $B$37)</f>
-        <v>0.41958041958041958</v>
+        <f xml:space="preserve"> (K26 - B50) / (L50 - B50)</f>
+        <v>0.43057824240444298</v>
       </c>
       <c r="M57">
-        <f xml:space="preserve"> (K27 - $B$37) / (M50 - $B$37)</f>
-        <v>0.60137986469287963</v>
+        <f xml:space="preserve"> (K27 - B50) / (M50 - B50)</f>
+        <v>0.60292253286181352</v>
       </c>
       <c r="N57">
-        <f xml:space="preserve"> (K28 - $B$37) / (N50 - $B$37)</f>
-        <v>0.36920994101150761</v>
+        <f xml:space="preserve"> (K28 - B50) / (N50 - B50)</f>
+        <v>0.37272814693720552</v>
       </c>
       <c r="O57">
-        <f xml:space="preserve"> (K29 - $B$37) / (O50 - $B$37)</f>
-        <v>0.2965546101269354</v>
+        <f xml:space="preserve"> (K29 - B50) / (O50 - B50)</f>
+        <v>0.29938871908863574</v>
       </c>
       <c r="P57">
-        <f xml:space="preserve"> (K30 - $B$37) / (P50 - $B$37)</f>
-        <v>0.37072850168982352</v>
+        <f xml:space="preserve"> (K30 - B50) / (P50 - B50)</f>
+        <v>0.37243703773054959</v>
       </c>
       <c r="Q57">
-        <f xml:space="preserve"> (K31 - $B$37) / (Q50 - $B$37)</f>
-        <v>0.30466830466830469</v>
+        <f xml:space="preserve"> (K31 - B50) / (Q50 - B50)</f>
+        <v>0.39139784946236561</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
@@ -2705,60 +2451,60 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <f xml:space="preserve"> (L25 - $B$37) / (D50 - $B$37)</f>
-        <v>0.90262727652940955</v>
+        <f xml:space="preserve"> (L25 - B50) / (C50 - B50)</f>
+        <v>0.90284153420084223</v>
       </c>
       <c r="E58">
-        <f xml:space="preserve"> (L27 - $B$37) / (E50 - $B$37)</f>
-        <v>0.89795918367346939</v>
+        <f xml:space="preserve"> (L27 - B50) / (E50 - B50)</f>
+        <v>0.90787269681742044</v>
       </c>
       <c r="F58">
-        <f xml:space="preserve"> (L28 - $B$37) / (F50 - $B$37)</f>
-        <v>0.90967318114632945</v>
+        <f xml:space="preserve"> (L28 - B50) / (F50 - B50)</f>
+        <v>0.90988776931268944</v>
       </c>
       <c r="G58">
-        <f xml:space="preserve"> (L29 - $B$37) / (G50 - $B$37)</f>
-        <v>0.76584943041109466</v>
+        <f xml:space="preserve"> (L29 - B50) / (G50 - B50)</f>
+        <v>0.76626908102095048</v>
       </c>
       <c r="H58">
-        <f xml:space="preserve"> (L30 - $B$37) / (H50 - $B$37)</f>
-        <v>0.7710697794847452</v>
+        <f xml:space="preserve"> (L30 - B50) / (H50 - B50)</f>
+        <v>0.77164134131117901</v>
       </c>
       <c r="I58">
-        <f xml:space="preserve"> (L31 - $B$37) / (I50 - $B$37)</f>
-        <v>0.63043478260869568</v>
+        <f xml:space="preserve"> (L31 - B50) / (I50 - B50)</f>
+        <v>0.63454894433781195</v>
       </c>
       <c r="J58">
-        <f xml:space="preserve"> (M24 - $B$37) / (J50 - $B$37)</f>
-        <v>0.55492251595259801</v>
+        <f xml:space="preserve"> (M24 - B50) / (J50 - B50)</f>
+        <v>0.55784469096671951</v>
       </c>
       <c r="K58">
-        <f xml:space="preserve"> (M25 - $B$37) / (K50 - $B$37)</f>
-        <v>0.58871794871794869</v>
+        <f xml:space="preserve"> (M25 - B50) / (K50 - B50)</f>
+        <v>0.60059760956175301</v>
       </c>
       <c r="L58">
-        <f xml:space="preserve"> (M26 - $B$37) / (L50 - $B$37)</f>
-        <v>0.48418248418248416</v>
+        <f xml:space="preserve"> (M26 - B50) / (L50 - B50)</f>
+        <v>0.49395622345638679</v>
       </c>
       <c r="M58">
-        <f xml:space="preserve"> (M27 - $B$37) / (M50 - $B$37)</f>
-        <v>0.65067988478799654</v>
+        <f xml:space="preserve"> (M27 - B50) / (M50 - B50)</f>
+        <v>0.6520317608594115</v>
       </c>
       <c r="N58">
-        <f xml:space="preserve"> (M28 - $B$37) / (N50 - $B$37)</f>
-        <v>0.3568320278503046</v>
+        <f xml:space="preserve"> (M28 - B50) / (N50 - B50)</f>
+        <v>0.36041927108375804</v>
       </c>
       <c r="O58">
-        <f xml:space="preserve"> (M29 - $B$37) / (O50 - $B$37)</f>
-        <v>0.3138513042265309</v>
+        <f xml:space="preserve"> (M29 - B50) / (O50 - B50)</f>
+        <v>0.31661572659071963</v>
       </c>
       <c r="P58">
-        <f xml:space="preserve"> (M30 - $B$37) / (P50 - $B$37)</f>
-        <v>0.41503942921517084</v>
+        <f xml:space="preserve"> (M30 - B50) / (P50 - B50)</f>
+        <v>0.41662765658646195</v>
       </c>
       <c r="Q58">
-        <f xml:space="preserve"> (M31 - $B$37) / (Q50 - $B$37)</f>
-        <v>0.35872235872235875</v>
+        <f xml:space="preserve"> (M31 - B50) / (Q50 - B50)</f>
+        <v>0.43870967741935485</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
@@ -2766,124 +2512,124 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <f xml:space="preserve"> (X17 - $B$37) / (D50 - $B$37)</f>
-        <v>0.88589787460552827</v>
+        <f xml:space="preserve"> (X17 - B50) / (C50 - B50)</f>
+        <v>0.88614894343487993</v>
       </c>
       <c r="E59">
-        <f xml:space="preserve"> (X19 - $B$37) / (E50 - $B$37)</f>
-        <v>0.80148423005565861</v>
+        <f xml:space="preserve"> (X19 - B50) / (E50 - B50)</f>
+        <v>0.82077051926298161</v>
       </c>
       <c r="F59">
-        <f xml:space="preserve"> (X20 - $B$37) / (F50 - $B$37)</f>
-        <v>0.95212678600755463</v>
+        <f xml:space="preserve"> (X20 - B50) / (F50 - B50)</f>
+        <v>0.95224051773572538</v>
       </c>
       <c r="G59">
-        <f xml:space="preserve"> (X21 - $B$37) / (G50 - $B$37)</f>
-        <v>0.80726844972758793</v>
+        <f xml:space="preserve"> (X21 - B50) / (G50 - B50)</f>
+        <v>0.80761386811692726</v>
       </c>
       <c r="H59">
-        <f xml:space="preserve"> (X22 - $B$37) / (H50 - $B$37)</f>
-        <v>0.75501661416303456</v>
+        <f xml:space="preserve"> (X22 - B50) / (H50 - B50)</f>
+        <v>0.75562825534845679</v>
       </c>
       <c r="I59">
-        <f xml:space="preserve"> (X23 - $B$37) / (I50 - $B$37)</f>
-        <v>0.6071428571428571</v>
+        <f xml:space="preserve"> (X23 - B50) / (I50 - B50)</f>
+        <v>0.6115163147792706</v>
       </c>
       <c r="J59">
-        <f xml:space="preserve"> (Y16 - $B$37) / (J50 - $B$37)</f>
-        <v>0.53327256153144942</v>
+        <f xml:space="preserve"> (Y16 - B50) / (J50 - B50)</f>
+        <v>0.53633688023545389</v>
       </c>
       <c r="K59">
-        <f xml:space="preserve"> (Y17 - $B$37) / (K50 - $B$37)</f>
-        <v>0.51179487179487182</v>
+        <f xml:space="preserve"> (Y17 - B50) / (K50 - B50)</f>
+        <v>0.52589641434262946</v>
       </c>
       <c r="L59">
-        <f xml:space="preserve"> (Y18 - $B$37) / (L50 - $B$37)</f>
-        <v>0.47485847485847488</v>
+        <f xml:space="preserve"> (Y18 - B50) / (L50 - B50)</f>
+        <v>0.48480888598497224</v>
       </c>
       <c r="M59">
-        <f xml:space="preserve"> (Y19 - $B$37) / (M50 - $B$37)</f>
-        <v>0.57043338468752092</v>
+        <f xml:space="preserve"> (Y19 - B50) / (M50 - B50)</f>
+        <v>0.57209581637419094</v>
       </c>
       <c r="N59">
-        <f xml:space="preserve"> (Y20 - $B$37) / (N50 - $B$37)</f>
-        <v>0.39860748476936464</v>
+        <f xml:space="preserve"> (Y20 - B50) / (N50 - B50)</f>
+        <v>0.40196172708914318</v>
       </c>
       <c r="O59">
-        <f xml:space="preserve"> (Y21 - $B$37) / (O50 - $B$37)</f>
-        <v>0.31873343562561024</v>
+        <f xml:space="preserve"> (Y21 - B50) / (O50 - B50)</f>
+        <v>0.32147818838566267</v>
       </c>
       <c r="P59">
-        <f xml:space="preserve"> (Y22 - $B$37) / (P50 - $B$37)</f>
-        <v>0.39879834772812617</v>
+        <f xml:space="preserve"> (Y22 - B50) / (P50 - B50)</f>
+        <v>0.40043067128546017</v>
       </c>
       <c r="Q59">
-        <f xml:space="preserve"> (Y23 - $B$37) / (Q50 - $B$37)</f>
-        <v>0.29975429975429974</v>
+        <f xml:space="preserve"> (Y23 - B50) / (Q50 - B50)</f>
+        <v>0.38709677419354838</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <f xml:space="preserve"> (L17 - $B$40) / (D50 - $B$40)</f>
-        <v>0.60841423948220064</v>
+        <f xml:space="preserve"> (L17 - B50) / (C50 - B50)</f>
+        <v>0.60981069084563144</v>
       </c>
       <c r="E61">
-        <f xml:space="preserve"> (L19 - $B$40) / (E50 - $B$40)</f>
-        <v>0.47316103379721669</v>
+        <f xml:space="preserve"> (L19 - B50) / (E50 - B50)</f>
+        <v>0.55611390284757123</v>
       </c>
       <c r="F61">
-        <f xml:space="preserve"> (L20 - $B$40) / (F50 - $B$40)</f>
-        <v>0.49300986842105265</v>
+        <f xml:space="preserve"> (L20 - B50) / (F50 - B50)</f>
+        <v>0.49496190710248217</v>
       </c>
       <c r="G61">
-        <f xml:space="preserve"> (L21 - $B$40) / (G50 - $B$40)</f>
-        <v>0.42258584356018347</v>
+        <f xml:space="preserve"> (L21 - B50) / (G50 - B50)</f>
+        <v>0.42426302453494841</v>
       </c>
       <c r="H61">
-        <f xml:space="preserve"> (L22 - $B$40) / (H50 - $B$40)</f>
-        <v>0.45839996542334788</v>
+        <f xml:space="preserve"> (L22 - B50) / (H50 - B50)</f>
+        <v>0.46059145107830057</v>
       </c>
       <c r="I61">
-        <f xml:space="preserve"> (L23 - $B$40) / (I50 - $B$40)</f>
-        <v>0.39053948397185301</v>
+        <f xml:space="preserve"> (L23 - B50) / (I50 - B50)</f>
+        <v>0.40153550863723608</v>
       </c>
       <c r="J61">
-        <f xml:space="preserve"> (M16 - $B$40) / (J50 - $B$40)</f>
-        <v>0.54004576659038905</v>
+        <f xml:space="preserve"> (M16 - B50) / (J50 - B50)</f>
+        <v>0.54494000452796021</v>
       </c>
       <c r="K61">
-        <f xml:space="preserve"> (M17 - $B$40) / (K50 - $B$40)</f>
-        <v>0.38871473354231972</v>
+        <f xml:space="preserve"> (M17 - B50) / (K50 - B50)</f>
+        <v>0.41733067729083667</v>
       </c>
       <c r="L61">
-        <f xml:space="preserve"> (M18 - $B$40) / (L50 - $B$40)</f>
-        <v>0.13818672059319179</v>
+        <f xml:space="preserve"> (M18 - B50) / (L50 - B50)</f>
+        <v>0.16465207448546226</v>
       </c>
       <c r="M61">
-        <f xml:space="preserve"> (M19 - $B$40) / (M50 - $B$40)</f>
-        <v>0.19472235278318673</v>
+        <f xml:space="preserve"> (M19 - B50) / (M50 - B50)</f>
+        <v>0.19977313671848937</v>
       </c>
       <c r="N61">
-        <f xml:space="preserve"> (M20 - $B$40) / (N50 - $B$40)</f>
-        <v>0.23114992721979621</v>
+        <f xml:space="preserve"> (M20 - B50) / (N50 - B50)</f>
+        <v>0.23809981729012406</v>
       </c>
       <c r="O61">
-        <f xml:space="preserve"> (M21 - $B$40) / (O50 - $B$40)</f>
-        <v>0.35561459935673334</v>
+        <f xml:space="preserve"> (M21 - B50) / (O50 - B50)</f>
+        <v>0.35982217282578494</v>
       </c>
       <c r="P61">
-        <f xml:space="preserve"> (M22 - $B$40) / (P50 - $B$40)</f>
-        <v>0.25023509497837126</v>
+        <f xml:space="preserve"> (M22 - B50) / (P50 - B50)</f>
+        <v>0.25353431326654807</v>
       </c>
       <c r="Q61">
-        <f xml:space="preserve"> (M23 - $B$40) / (Q50 - $B$40)</f>
-        <v>0.1078167115902965</v>
+        <f xml:space="preserve"> (M23 - B50) / (Q50 - B50)</f>
+        <v>0.28817204301075267</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
@@ -2891,60 +2637,60 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <f xml:space="preserve"> (N17 - $B$40) / (D50 - $B$40)</f>
-        <v>0.45368360936607655</v>
+        <f xml:space="preserve"> (N17 - B50) / (C50 - B50)</f>
+        <v>0.45563185249819793</v>
       </c>
       <c r="E62">
-        <f xml:space="preserve"> (N19 - $B$40) / (E50 - $B$40)</f>
-        <v>0.42942345924453279</v>
+        <f xml:space="preserve"> (N19 - B50) / (E50 - B50)</f>
+        <v>0.51926298157453932</v>
       </c>
       <c r="F62">
-        <f xml:space="preserve"> (N20 - $B$40) / (F50 - $B$40)</f>
-        <v>0.50838815789473679</v>
+        <f xml:space="preserve"> (N20 - B50) / (F50 - B50)</f>
+        <v>0.51028098631932495</v>
       </c>
       <c r="G62">
-        <f xml:space="preserve"> (N21 - $B$40) / (G50 - $B$40)</f>
-        <v>0.43194496095202678</v>
+        <f xml:space="preserve"> (N21 - B50) / (G50 - B50)</f>
+        <v>0.43359495704839007</v>
       </c>
       <c r="H62">
-        <f xml:space="preserve"> (N22 - $B$40) / (H50 - $B$40)</f>
-        <v>0.50637507023382466</v>
+        <f xml:space="preserve"> (N22 - B50) / (H50 - B50)</f>
+        <v>0.50837243338642335</v>
       </c>
       <c r="I62">
-        <f xml:space="preserve"> (N23 - $B$40) / (I50 - $B$40)</f>
-        <v>0.51876465989053944</v>
+        <f xml:space="preserve"> (N23 - B50) / (I50 - B50)</f>
+        <v>0.52744721689059504</v>
       </c>
       <c r="J62">
-        <f xml:space="preserve"> (O16 - $B$40) / (J50 - $B$40)</f>
-        <v>0.51624713958810065</v>
+        <f xml:space="preserve"> (O16 - B50) / (J50 - B50)</f>
+        <v>0.52139461172741675</v>
       </c>
       <c r="K62">
-        <f xml:space="preserve"> (O17 - $B$40) / (K50 - $B$40)</f>
-        <v>0.37095088819226751</v>
+        <f xml:space="preserve"> (O17 - B50) / (K50 - B50)</f>
+        <v>0.40039840637450197</v>
       </c>
       <c r="L62">
-        <f xml:space="preserve"> (O18 - $B$40) / (L50 - $B$40)</f>
-        <v>0.13549039433771487</v>
+        <f xml:space="preserve"> (O18 - B50) / (L50 - B50)</f>
+        <v>0.16203854949362953</v>
       </c>
       <c r="M62">
-        <f xml:space="preserve"> (O19 - $B$40) / (M50 - $B$40)</f>
-        <v>0.17592157389377561</v>
+        <f xml:space="preserve"> (O19 - B50) / (M50 - B50)</f>
+        <v>0.18109027824114232</v>
       </c>
       <c r="N62">
-        <f xml:space="preserve"> (O20 - $B$40) / (N50 - $B$40)</f>
-        <v>0.24434740417273168</v>
+        <f xml:space="preserve"> (O20 - B50) / (N50 - B50)</f>
+        <v>0.25117799788441197</v>
       </c>
       <c r="O62">
-        <f xml:space="preserve"> (O21 - $B$40) / (O50 - $B$40)</f>
-        <v>0.42036078870088101</v>
+        <f xml:space="preserve"> (O21 - B50) / (O50 - B50)</f>
+        <v>0.42414559599888857</v>
       </c>
       <c r="P62">
-        <f xml:space="preserve"> (O22 - $B$40) / (P50 - $B$40)</f>
-        <v>0.25023509497837126</v>
+        <f xml:space="preserve"> (O22 - B50) / (P50 - B50)</f>
+        <v>0.25353431326654807</v>
       </c>
       <c r="Q62">
-        <f xml:space="preserve"> (O23 - $B$40) / (Q50 - $B$40)</f>
-        <v>0.16172506738544473</v>
+        <f xml:space="preserve"> (O23 - B50) / (Q50 - B50)</f>
+        <v>0.33118279569892473</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
@@ -2952,60 +2698,60 @@
         <v>3</v>
       </c>
       <c r="D63">
-        <f xml:space="preserve"> (N25 - $B$40) / (D50 - $B$40)</f>
-        <v>0.55686274509803924</v>
+        <f xml:space="preserve"> (N25 - B50) / (C50 - B50)</f>
+        <v>0.55844303653401117</v>
       </c>
       <c r="E63">
-        <f xml:space="preserve"> (N27 - $B$40) / (E50 - $B$40)</f>
-        <v>0.42544731610337971</v>
+        <f xml:space="preserve"> (N27 - B50) / (E50 - B50)</f>
+        <v>0.51591289782244554</v>
       </c>
       <c r="F63">
-        <f xml:space="preserve"> (N28 - $B$40) / (F50 - $B$40)</f>
-        <v>0.51274671052631582</v>
+        <f xml:space="preserve"> (N28 - B50) / (F50 - B50)</f>
+        <v>0.514622757434259</v>
       </c>
       <c r="G63">
-        <f xml:space="preserve"> (N29 - $B$40) / (G50 - $B$40)</f>
-        <v>0.44427916201809842</v>
+        <f xml:space="preserve"> (N29 - B50) / (G50 - B50)</f>
+        <v>0.44589333168530992</v>
       </c>
       <c r="H63">
-        <f xml:space="preserve"> (N30 - $B$40) / (H50 - $B$40)</f>
-        <v>0.47655270778406883</v>
+        <f xml:space="preserve"> (N30 - B50) / (H50 - B50)</f>
+        <v>0.47867074168137402</v>
       </c>
       <c r="I63">
-        <f xml:space="preserve"> (N31 - $B$40) / (I50 - $B$40)</f>
-        <v>0.5332290852228303</v>
+        <f xml:space="preserve"> (N31 - B50) / (I50 - B50)</f>
+        <v>0.54165067178502879</v>
       </c>
       <c r="J63">
-        <f xml:space="preserve"> (O24 - $B$40) / (J50 - $B$40)</f>
-        <v>0.53638443935926772</v>
+        <f xml:space="preserve"> (O24 - B50) / (J50 - B50)</f>
+        <v>0.54131763640479968</v>
       </c>
       <c r="K63">
-        <f xml:space="preserve"> (O25- $B$40) / (K50 - $B$40)</f>
-        <v>0.41379310344827586</v>
+        <f xml:space="preserve"> (O25- B50) / (K50 - B50)</f>
+        <v>0.44123505976095617</v>
       </c>
       <c r="L63">
-        <f xml:space="preserve"> (O26 - $B$40) / (L50 - $B$40)</f>
-        <v>0.16852039096730703</v>
+        <f xml:space="preserve"> (O26 - B50) / (L50 - B50)</f>
+        <v>0.19405423064358052</v>
       </c>
       <c r="M63">
-        <f xml:space="preserve"> (O27 - $B$40) / (M50 - $B$40)</f>
-        <v>0.18491908950513664</v>
+        <f xml:space="preserve"> (O27 - B50) / (M50 - B50)</f>
+        <v>0.19003136051244413</v>
       </c>
       <c r="N63">
-        <f xml:space="preserve"> (O28 - $B$40) / (N50 - $B$40)</f>
-        <v>0.25638039786511402</v>
+        <f xml:space="preserve"> (O28 - B50) / (N50 - B50)</f>
+        <v>0.26310222136743916</v>
       </c>
       <c r="O63">
-        <f xml:space="preserve"> (O29 - $B$40) / (O50 - $B$40)</f>
-        <v>0.4294504265137743</v>
+        <f xml:space="preserve"> (O29 - B50) / (O50 - B50)</f>
+        <v>0.4331758821894971</v>
       </c>
       <c r="P63">
-        <f xml:space="preserve"> (O30 - $B$40) / (P50 - $B$40)</f>
-        <v>0.2313334587173218</v>
+        <f xml:space="preserve"> (O30 - B50) / (P50 - B50)</f>
+        <v>0.23471585057578878</v>
       </c>
       <c r="Q63">
-        <f xml:space="preserve"> (O31 - $B$40) / (Q50 - $B$40)</f>
-        <v>0.15094339622641509</v>
+        <f xml:space="preserve"> (O31 - B50) / (Q50 - B50)</f>
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
@@ -3013,60 +2759,60 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <f xml:space="preserve"> (P25 - $B$40) / (D50 - $B$40)</f>
-        <v>0.58511326860841428</v>
+        <f xml:space="preserve"> (P25 - B50) / (C50 - B50)</f>
+        <v>0.58659281459842938</v>
       </c>
       <c r="E64">
-        <f xml:space="preserve"> (P27 - $B$40) / (E50 - $B$40)</f>
-        <v>0.5248508946322068</v>
+        <f xml:space="preserve"> (P27 - B50) / (E50 - B50)</f>
+        <v>0.59966499162479059</v>
       </c>
       <c r="F64">
-        <f xml:space="preserve"> (P28 - $B$40) / (F50 - $B$40)</f>
-        <v>0.49564144736842103</v>
+        <f xml:space="preserve"> (P28 - B50) / (F50 - B50)</f>
+        <v>0.49758335381338575</v>
       </c>
       <c r="G64">
-        <f xml:space="preserve"> (P29 - $B$40) / (G50 - $B$40)</f>
-        <v>0.43250278914094459</v>
+        <f xml:space="preserve"> (P29 - B50) / (G50 - B50)</f>
+        <v>0.43415116494654227</v>
       </c>
       <c r="H64">
-        <f xml:space="preserve"> (P30 - $B$40) / (H50 - $B$40)</f>
-        <v>0.513636167178113</v>
+        <f xml:space="preserve"> (P30 - B50) / (H50 - B50)</f>
+        <v>0.51560414962765266</v>
       </c>
       <c r="I64">
-        <f xml:space="preserve"> (P31 - $B$40) / (I50 - $B$40)</f>
-        <v>0.5218921032056294</v>
+        <f xml:space="preserve"> (P31 - B50) / (I50 - B50)</f>
+        <v>0.53051823416506716</v>
       </c>
       <c r="J64">
-        <f xml:space="preserve"> (Q24 - $B$40) / (J50 - $B$40)</f>
-        <v>0.52219679633867278</v>
+        <f xml:space="preserve"> (Q24 - B50) / (J50 - B50)</f>
+        <v>0.52728095992755264</v>
       </c>
       <c r="K64">
-        <f xml:space="preserve"> (Q25 - $B$40) / (K50 - $B$40)</f>
-        <v>0.41483803552769072</v>
+        <f xml:space="preserve"> (Q25 - B50) / (K50 - B50)</f>
+        <v>0.44223107569721115</v>
       </c>
       <c r="L64">
-        <f xml:space="preserve"> (Q26 - $B$40) / (L50 - $B$40)</f>
-        <v>0.21638018200202225</v>
+        <f xml:space="preserve"> (Q26 - B50) / (L50 - B50)</f>
+        <v>0.24044429924861158</v>
       </c>
       <c r="M64">
-        <f xml:space="preserve"> (Q27 - $B$40) / (M50 - $B$40)</f>
-        <v>0.20183979050560666</v>
+        <f xml:space="preserve"> (Q27 - B50) / (M50 - B50)</f>
+        <v>0.20684593314205646</v>
       </c>
       <c r="N64">
-        <f xml:space="preserve"> (Q28 - $B$40) / (N50 - $B$40)</f>
-        <v>0.23658418243571083</v>
+        <f xml:space="preserve"> (Q28 - B50) / (N50 - B50)</f>
+        <v>0.24348495047600729</v>
       </c>
       <c r="O64">
-        <f xml:space="preserve"> (Q29 - $B$40) / (O50 - $B$40)</f>
-        <v>0.4260942525520906</v>
+        <f xml:space="preserve"> (Q29 - B50) / (O50 - B50)</f>
+        <v>0.42984162267296472</v>
       </c>
       <c r="P64">
-        <f xml:space="preserve"> (Q30 - $B$40) / (P50 - $B$40)</f>
-        <v>0.24148956178296033</v>
+        <f xml:space="preserve"> (Q30 - B50) / (P50 - B50)</f>
+        <v>0.24482726336485347</v>
       </c>
       <c r="Q64">
-        <f xml:space="preserve"> (Q31 - $B$40) / (Q50 - $B$40)</f>
-        <v>0.16172506738544473</v>
+        <f xml:space="preserve"> (Q31 - B50) / (Q50 - B50)</f>
+        <v>0.33118279569892473</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
@@ -3074,124 +2820,124 @@
         <v>5</v>
       </c>
       <c r="D65">
-        <f xml:space="preserve"> (T25 - $B$40) / (D50 - $B$40)</f>
-        <v>0.5254140491147915</v>
+        <f xml:space="preserve"> (T25 - B50) / (C50 - B50)</f>
+        <v>0.52710649114154562</v>
       </c>
       <c r="E65">
-        <f xml:space="preserve"> (T27 - $B$40) / (E50 - $B$40)</f>
-        <v>0.44135188866799202</v>
+        <f xml:space="preserve"> (T27 - B50) / (E50 - B50)</f>
+        <v>0.52931323283082077</v>
       </c>
       <c r="F65">
-        <f xml:space="preserve"> (T28 - $B$40) / (F50 - $B$40)</f>
-        <v>0.52409539473684208</v>
+        <f xml:space="preserve"> (T28 - B50) / (F50 - B50)</f>
+        <v>0.5259277463750307</v>
       </c>
       <c r="G65">
-        <f xml:space="preserve"> (T29 - $B$40) / (G50 - $B$40)</f>
-        <v>0.44285360109086402</v>
+        <f xml:space="preserve"> (T29 - B50) / (G50 - B50)</f>
+        <v>0.44447191150114329</v>
       </c>
       <c r="H65">
-        <f xml:space="preserve"> (T30 - $B$40) / (H50 - $B$40)</f>
-        <v>0.49029692700004324</v>
+        <f xml:space="preserve"> (T30 - B50) / (H50 - B50)</f>
+        <v>0.49235934742370108</v>
       </c>
       <c r="I65">
-        <f xml:space="preserve"> (T31 - $B$40) / (I50 - $B$40)</f>
-        <v>0.45817044566067239</v>
+        <f xml:space="preserve"> (T31 - B50) / (I50 - B50)</f>
+        <v>0.46794625719769672</v>
       </c>
       <c r="J65">
-        <f xml:space="preserve"> (U24 - $B$40) / (J50 - $B$40)</f>
-        <v>0.54736842105263162</v>
+        <f xml:space="preserve"> (U24 - B50) / (J50 - B50)</f>
+        <v>0.55218474077428115</v>
       </c>
       <c r="K65">
-        <f xml:space="preserve"> (U25 - $B$40) / (K50 - $B$40)</f>
-        <v>0.52664576802507834</v>
+        <f xml:space="preserve"> (U25 - B50) / (K50 - B50)</f>
+        <v>0.54880478087649398</v>
       </c>
       <c r="L65">
-        <f xml:space="preserve"> (U26 - $B$40) / (L50 - $B$40)</f>
-        <v>0.16582406471183014</v>
+        <f xml:space="preserve"> (U26 - B50) / (L50 - B50)</f>
+        <v>0.19144070565174778</v>
       </c>
       <c r="M65">
-        <f xml:space="preserve"> (U27 - $B$40) / (M50 - $B$40)</f>
-        <v>0.19418518767206069</v>
+        <f xml:space="preserve"> (U27 - B50) / (M50 - B50)</f>
+        <v>0.19923934076199373</v>
       </c>
       <c r="N65">
-        <f xml:space="preserve"> (U28 - $B$40) / (N50 - $B$40)</f>
-        <v>0.27287724405628333</v>
+        <f xml:space="preserve"> (U28 - B50) / (N50 - B50)</f>
+        <v>0.27944994711029908</v>
       </c>
       <c r="O65">
-        <f xml:space="preserve"> (U29 - $B$40) / (O50 - $B$40)</f>
-        <v>0.45797790518808557</v>
+        <f xml:space="preserve"> (U29 - B50) / (O50 - B50)</f>
+        <v>0.46151708808002223</v>
       </c>
       <c r="P65">
-        <f xml:space="preserve"> (U30 - $B$40) / (P50 - $B$40)</f>
-        <v>0.23838630806845965</v>
+        <f xml:space="preserve"> (U30 - B50) / (P50 - B50)</f>
+        <v>0.24173766501263927</v>
       </c>
       <c r="Q65">
-        <f xml:space="preserve"> (U31 - $B$40) / (Q50 - $B$40)</f>
-        <v>0.19407008086253369</v>
+        <f xml:space="preserve"> (U31 - B50) / (Q50 - B50)</f>
+        <v>0.35698924731182796</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <f xml:space="preserve"> (D25 - $B$43) / (D50 - $B$43)</f>
-        <v>0.50508513312764258</v>
+        <f xml:space="preserve"> (D25 - B50) / (C50 - B50)</f>
+        <v>0.50707538222239079</v>
       </c>
       <c r="E67">
-        <f xml:space="preserve"> (D27 - $B$43) / (E50 - $B$43)</f>
-        <v>0.85539714867617112</v>
+        <f xml:space="preserve"> (D27 - B50) / (E50 - B50)</f>
+        <v>0.88107202680066998</v>
       </c>
       <c r="F67">
-        <f xml:space="preserve"> (D28 - $B$43) / (F50 - $B$43)</f>
-        <v>0.5993088695079809</v>
+        <f xml:space="preserve"> (D28 - B50) / (F50 - B50)</f>
+        <v>0.60104857868436146</v>
       </c>
       <c r="G67">
-        <f xml:space="preserve"> (D29 - $B$43) / (G50 - $B$43)</f>
-        <v>0.98009672619047616</v>
+        <f xml:space="preserve"> (D29 - B50) / (G50 - B50)</f>
+        <v>0.98016191829923982</v>
       </c>
       <c r="H67">
-        <f xml:space="preserve"> (D30 - $B$43) / (H50 - $B$43)</f>
-        <v>0.78287567567567573</v>
+        <f xml:space="preserve"> (D30 - B50) / (H50 - B50)</f>
+        <v>0.78386638543325726</v>
       </c>
       <c r="I67">
-        <f xml:space="preserve"> (D31 - $B$43) / (I50 - $B$43)</f>
-        <v>0.73589341692789967</v>
+        <f xml:space="preserve"> (D31 - B50) / (I50 - B50)</f>
+        <v>0.74126679462571976</v>
       </c>
       <c r="J67">
-        <f xml:space="preserve"> (E24 - $B$43) / (J50 - $B$43)</f>
-        <v>0.69660861594867096</v>
+        <f xml:space="preserve"> (E24 - B50) / (J50 - B50)</f>
+        <v>0.70024903780846726</v>
       </c>
       <c r="K67">
-        <f xml:space="preserve"> (E25 - $B$43) / (K50 - $B$43)</f>
-        <v>0.58675078864353314</v>
+        <f xml:space="preserve"> (E25 - B50) / (K50 - B50)</f>
+        <v>0.60856573705179284</v>
       </c>
       <c r="L67">
-        <f xml:space="preserve"> (E26 - $B$43) / (L50 - $B$43)</f>
-        <v>0.26057529610829105</v>
+        <f xml:space="preserve"> (E26 - B50) / (L50 - B50)</f>
+        <v>0.28618098660568442</v>
       </c>
       <c r="M67">
-        <f xml:space="preserve"> (E27 - $B$43) / (M50 - $B$43)</f>
-        <v>0.60479806464619312</v>
+        <f xml:space="preserve"> (E27 - B50) / (M50 - B50)</f>
+        <v>0.60759324748115029</v>
       </c>
       <c r="N67">
-        <f xml:space="preserve"> (E28 - $B$43) / (N50 - $B$43)</f>
-        <v>0.26406295540658697</v>
+        <f xml:space="preserve"> (E28 - B50) / (N50 - B50)</f>
+        <v>0.27156457351668428</v>
       </c>
       <c r="O67">
-        <f xml:space="preserve"> (E29 - $B$43) / (O50 - $B$43)</f>
-        <v>0.2218334499650105</v>
+        <f xml:space="preserve"> (E29 - B50) / (O50 - B50)</f>
+        <v>0.22756321200333426</v>
       </c>
       <c r="P67">
-        <f xml:space="preserve"> (E30 - $B$43) / (P50 - $B$43)</f>
-        <v>0.32499059089198346</v>
+        <f xml:space="preserve"> (E30 - B50) / (P50 - B50)</f>
+        <v>0.32834004306712855</v>
       </c>
       <c r="Q67">
-        <f xml:space="preserve"> (E31 - $B$43) / (Q50 - $B$43)</f>
-        <v>0.5236768802228412</v>
+        <f xml:space="preserve"> (E31 - B50) / (Q50 - B50)</f>
+        <v>0.63225806451612898</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
@@ -3199,60 +2945,60 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <f xml:space="preserve"> (H25 - $B$43) / (D50 - $B$43)</f>
-        <v>0.49144859635089322</v>
+        <f xml:space="preserve"> (H25 - B50) / (C50 - B50)</f>
+        <v>0.49349368337190336</v>
       </c>
       <c r="E68">
-        <f xml:space="preserve"> (H27 - $B$43) / (E50 - $B$43)</f>
-        <v>0.72097759674134421</v>
+        <f xml:space="preserve"> (H27 - B50) / (E50 - B50)</f>
+        <v>0.77051926298157458</v>
       </c>
       <c r="F68">
-        <f xml:space="preserve"> (H28 - $B$43) / (F50 - $B$43)</f>
-        <v>0.69038999506335363</v>
+        <f xml:space="preserve"> (H28 - B50) / (F50 - B50)</f>
+        <v>0.6917342508396821</v>
       </c>
       <c r="G68">
-        <f xml:space="preserve"> (H29 - $B$43) / (G50 - $B$43)</f>
-        <v>1.0037202380952381</v>
+        <f xml:space="preserve"> (H29 - B50) / (G50 - B50)</f>
+        <v>1.0037080526543476</v>
       </c>
       <c r="H68">
-        <f xml:space="preserve"> (H30 - $B$43) / (H50 - $B$43)</f>
-        <v>0.911827027027027</v>
+        <f xml:space="preserve"> (H30 - B50) / (H50 - B50)</f>
+        <v>0.91222934871507899</v>
       </c>
       <c r="I68">
-        <f xml:space="preserve"> (H31 - $B$43) / (I50 - $B$43)</f>
-        <v>0.88244514106583072</v>
+        <f xml:space="preserve"> (H31 - B50) / (I50 - B50)</f>
+        <v>0.88483685220729369</v>
       </c>
       <c r="J68">
-        <f xml:space="preserve"> (I24 - $B$43) / (J50 - $B$43)</f>
-        <v>0.65421631530705771</v>
+        <f xml:space="preserve"> (I24 - B50) / (J50 - B50)</f>
+        <v>0.65836540638442387</v>
       </c>
       <c r="K68">
-        <f xml:space="preserve"> (I25 - $B$43) / (K50 - $B$43)</f>
-        <v>0.58464773922187174</v>
+        <f xml:space="preserve"> (I25 - B50) / (K50 - B50)</f>
+        <v>0.60657370517928288</v>
       </c>
       <c r="L68">
-        <f xml:space="preserve"> (I26 - $B$43) / (L50 - $B$43)</f>
-        <v>0.23688663282571912</v>
+        <f xml:space="preserve"> (I26 - B50) / (L50 - B50)</f>
+        <v>0.26331264292714801</v>
       </c>
       <c r="M68">
-        <f xml:space="preserve"> (I27 - $B$43) / (M50 - $B$43)</f>
-        <v>0.58840131711578525</v>
+        <f xml:space="preserve"> (I27 - B50) / (M50 - B50)</f>
+        <v>0.59131247080803362</v>
       </c>
       <c r="N68">
-        <f xml:space="preserve"> (I28 - $B$43) / (N50 - $B$43)</f>
-        <v>0.32177207811133779</v>
+        <f xml:space="preserve"> (I28 - B50) / (N50 - B50)</f>
+        <v>0.32868545052408887</v>
       </c>
       <c r="O68">
-        <f xml:space="preserve"> (I29 - $B$43) / (O50 - $B$43)</f>
-        <v>0.26899930020993701</v>
+        <f xml:space="preserve"> (I29 - B50) / (O50 - B50)</f>
+        <v>0.27438177271464298</v>
       </c>
       <c r="P68">
-        <f xml:space="preserve"> (I30 - $B$43) / (P50 - $B$43)</f>
-        <v>0.46170493037260069</v>
+        <f xml:space="preserve"> (I30 - B50) / (P50 - B50)</f>
+        <v>0.46437599475704522</v>
       </c>
       <c r="Q68">
-        <f xml:space="preserve"> (I31 - $B$43) / (Q50 - $B$43)</f>
-        <v>0.74651810584958223</v>
+        <f xml:space="preserve"> (I31 - B50) / (Q50 - B50)</f>
+        <v>0.80430107526881722</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
@@ -3260,60 +3006,60 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <f xml:space="preserve"> (J17 - $B$43) / (D50 - $B$43)</f>
-        <v>0.52992039005066083</v>
+        <f xml:space="preserve"> (J17 - B50) / (C50 - B50)</f>
+        <v>0.53181076672104399</v>
       </c>
       <c r="E69">
-        <f xml:space="preserve"> (J19 - $B$43) / (E50 - $B$43)</f>
-        <v>0.6761710794297352</v>
+        <f xml:space="preserve"> (J19 - B50) / (E50 - B50)</f>
+        <v>0.73366834170854267</v>
       </c>
       <c r="F69">
-        <f xml:space="preserve"> (J20 - $B$43) / (F50 - $B$43)</f>
-        <v>0.62678953430969231</v>
+        <f xml:space="preserve"> (J20 - B50) / (F50 - B50)</f>
+        <v>0.62840992872941759</v>
       </c>
       <c r="G69">
-        <f xml:space="preserve"> (J21 - $B$43) / (G50 - $B$43)</f>
-        <v>1.0650421626984128</v>
+        <f xml:space="preserve"> (J21 - B50) / (G50 - B50)</f>
+        <v>1.0648291205735121</v>
       </c>
       <c r="H69">
-        <f xml:space="preserve"> (J22 - $B$43) / (H50 - $B$43)</f>
-        <v>0.82577297297297292</v>
+        <f xml:space="preserve"> (J22 - B50) / (H50 - B50)</f>
+        <v>0.82656794800051658</v>
       </c>
       <c r="I69">
-        <f xml:space="preserve"> (J23 - $B$43) / (I50 - $B$43)</f>
-        <v>0.86520376175548586</v>
+        <f xml:space="preserve"> (J23 - B50) / (I50 - B50)</f>
+        <v>0.86794625719769669</v>
       </c>
       <c r="J69">
-        <f xml:space="preserve"> (K16 - $B$43) / (J50 - $B$43)</f>
-        <v>0.71998166819431719</v>
+        <f xml:space="preserve"> (K16 - B50) / (J50 - B50)</f>
+        <v>0.72334163459361556</v>
       </c>
       <c r="K69">
-        <f xml:space="preserve"> (K17 - $B$43) / (K50 - $B$43)</f>
-        <v>0.67613038906414302</v>
+        <f xml:space="preserve"> (K17 - B50) / (K50 - B50)</f>
+        <v>0.69322709163346619</v>
       </c>
       <c r="L69">
-        <f xml:space="preserve"> (K18 - $B$43) / (L50 - $B$43)</f>
-        <v>0.29373942470389169</v>
+        <f xml:space="preserve"> (K18 - B50) / (L50 - B50)</f>
+        <v>0.31819666775563543</v>
       </c>
       <c r="M69">
-        <f xml:space="preserve"> (K19 - $B$43) / (M50 - $B$43)</f>
-        <v>0.69672737047241451</v>
+        <f xml:space="preserve"> (K19 - B50) / (M50 - B50)</f>
+        <v>0.69887235604190301</v>
       </c>
       <c r="N69">
-        <f xml:space="preserve"> (K20 - $B$43) / (N50 - $B$43)</f>
-        <v>0.32254930535315263</v>
+        <f xml:space="preserve"> (K20 - B50) / (N50 - B50)</f>
+        <v>0.32945475526492934</v>
       </c>
       <c r="O69">
-        <f xml:space="preserve"> (K21 - $B$43) / (O50 - $B$43)</f>
-        <v>0.32106368089573128</v>
+        <f xml:space="preserve"> (K21 - B50) / (O50 - B50)</f>
+        <v>0.32606279522089471</v>
       </c>
       <c r="P69">
-        <f xml:space="preserve"> (K22 - $B$43) / (P50 - $B$43)</f>
-        <v>0.38963116296575084</v>
+        <f xml:space="preserve"> (K22 - B50) / (P50 - B50)</f>
+        <v>0.39265986330867897</v>
       </c>
       <c r="Q69">
-        <f xml:space="preserve"> (K23 - $B$43) / (Q50 - $B$43)</f>
-        <v>0.69080779944289694</v>
+        <f xml:space="preserve"> (K23 - B50) / (Q50 - B50)</f>
+        <v>0.76129032258064511</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
@@ -3321,60 +3067,60 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <f xml:space="preserve"> (R17 - $B$43) / (D50 - $B$43)</f>
-        <v>0.54203329143335999</v>
+        <f xml:space="preserve"> (R17 - B50) / (C50 - B50)</f>
+        <v>0.5438749573200804</v>
       </c>
       <c r="E70">
-        <f xml:space="preserve"> (R19 - $B$43) / (E50 - $B$43)</f>
-        <v>0.85539714867617112</v>
+        <f xml:space="preserve"> (R19 - B50) / (E50 - B50)</f>
+        <v>0.88107202680066998</v>
       </c>
       <c r="F70">
-        <f xml:space="preserve"> (R20 - $B$43) / (F50 - $B$43)</f>
-        <v>0.6565739674181339</v>
+        <f xml:space="preserve"> (R20 - B50) / (F50 - B50)</f>
+        <v>0.65806504464651427</v>
       </c>
       <c r="G70">
-        <f xml:space="preserve"> (R21 - $B$43) / (G50 - $B$43)</f>
-        <v>1.0201512896825398</v>
+        <f xml:space="preserve"> (R21 - B50) / (G50 - B50)</f>
+        <v>1.02008528521105</v>
       </c>
       <c r="H70">
-        <f xml:space="preserve"> (R22 - $B$43) / (H50 - $B$43)</f>
-        <v>0.86633513513513516</v>
+        <f xml:space="preserve"> (R22 - B50) / (H50 - B50)</f>
+        <v>0.86694503034738069</v>
       </c>
       <c r="I70">
-        <f xml:space="preserve"> (R23 - $B$43) / (I50 - $B$43)</f>
-        <v>0.8420846394984326</v>
+        <f xml:space="preserve"> (R23 - B50) / (I50 - B50)</f>
+        <v>0.84529750479846444</v>
       </c>
       <c r="J70">
-        <f xml:space="preserve"> (S16 - $B$43) / (J50 - $B$43)</f>
-        <v>0.68263061411549042</v>
+        <f xml:space="preserve"> (S16 - B50) / (J50 - B50)</f>
+        <v>0.68643875933891785</v>
       </c>
       <c r="K70">
-        <f xml:space="preserve"> (S17 - $B$43) / (K50 - $B$43)</f>
-        <v>0.88538380651945325</v>
+        <f xml:space="preserve"> (S17 - B50) / (K50 - B50)</f>
+        <v>0.89143426294820716</v>
       </c>
       <c r="L70">
-        <f xml:space="preserve"> (S18 - $B$43) / (L50 - $B$43)</f>
-        <v>0.29306260575296106</v>
+        <f xml:space="preserve"> (S18 - B50) / (L50 - B50)</f>
+        <v>0.31754328650767721</v>
       </c>
       <c r="M70">
-        <f xml:space="preserve"> (S19 - $B$43) / (M50 - $B$43)</f>
-        <v>0.60063167797863048</v>
+        <f xml:space="preserve"> (S19 - B50) / (M50 - B50)</f>
+        <v>0.60345632881830924</v>
       </c>
       <c r="N70">
-        <f xml:space="preserve"> (S20 - $B$43) / (N50 - $B$43)</f>
-        <v>0.35655299718255123</v>
+        <f xml:space="preserve"> (S20 - B50) / (N50 - B50)</f>
+        <v>0.36311183767669969</v>
       </c>
       <c r="O70">
-        <f xml:space="preserve"> (S21 - $B$43) / (O50 - $B$43)</f>
-        <v>0.25962211336599023</v>
+        <f xml:space="preserve"> (S21 - B50) / (O50 - B50)</f>
+        <v>0.2650736315643234</v>
       </c>
       <c r="P70">
-        <f xml:space="preserve"> (S22 - $B$43) / (P50 - $B$43)</f>
-        <v>0.42745577719232219</v>
+        <f xml:space="preserve"> (S22 - B50) / (P50 - B50)</f>
+        <v>0.43029678869019755</v>
       </c>
       <c r="Q70">
-        <f xml:space="preserve"> (S23 - $B$43) / (Q50 - $B$43)</f>
-        <v>0.6740947075208914</v>
+        <f xml:space="preserve"> (S23 - B50) / (Q50 - B50)</f>
+        <v>0.74838709677419357</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
@@ -3382,124 +3128,124 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <f xml:space="preserve"> (X25 - $B$43) / (D50 - $B$43)</f>
-        <v>0.53692911286329181</v>
+        <f xml:space="preserve"> (X25 - B50) / (C50 - B50)</f>
+        <v>0.53879130467771919</v>
       </c>
       <c r="E71">
-        <f xml:space="preserve"> (X27 - $B$43) / (E50 - $B$43)</f>
-        <v>0.76171079429735233</v>
+        <f xml:space="preserve"> (X27 - B50) / (E50 - B50)</f>
+        <v>0.8040201005025126</v>
       </c>
       <c r="F71">
-        <f xml:space="preserve"> (X28 - $B$43) / (F50 - $B$43)</f>
-        <v>0.70141517195984859</v>
+        <f xml:space="preserve"> (X28 - B50) / (F50 - B50)</f>
+        <v>0.70271155894159087</v>
       </c>
       <c r="G71">
-        <f xml:space="preserve"> (X29 - $B$43) / (G50 - $B$43)</f>
-        <v>1.0430927579365079</v>
+        <f xml:space="preserve"> (X29 - B50) / (G50 - B50)</f>
+        <v>1.0429516099128608</v>
       </c>
       <c r="H71">
-        <f xml:space="preserve"> (X30 - $B$43) / (H50 - $B$43)</f>
-        <v>0.91874594594594594</v>
+        <f xml:space="preserve"> (X30 - B50) / (H50 - B50)</f>
+        <v>0.9191166975162498</v>
       </c>
       <c r="I71">
-        <f xml:space="preserve"> (X31 - $B$43) / (I50 - $B$43)</f>
-        <v>0.85697492163009403</v>
+        <f xml:space="preserve"> (X31 - B50) / (I50 - B50)</f>
+        <v>0.85988483685220729</v>
       </c>
       <c r="J71">
-        <f xml:space="preserve"> (Y24 - $B$43) / (J50 - $B$43)</f>
-        <v>0.63107241063244734</v>
+        <f xml:space="preserve"> (Y24 - B50) / (J50 - B50)</f>
+        <v>0.63549920760697309</v>
       </c>
       <c r="K71">
-        <f xml:space="preserve"> (Y25 - $B$43) / (K50 - $B$43)</f>
-        <v>0.619348054679285</v>
+        <f xml:space="preserve"> (Y25 - B50) / (K50 - B50)</f>
+        <v>0.6394422310756972</v>
       </c>
       <c r="L71">
-        <f xml:space="preserve"> (Y26 - $B$43) / (L50 - $B$43)</f>
-        <v>0.28967851099830794</v>
+        <f xml:space="preserve"> (Y26 - B50) / (L50 - B50)</f>
+        <v>0.31427638026788629</v>
       </c>
       <c r="M71">
-        <f xml:space="preserve"> (Y27 - $B$43) / (M50 - $B$43)</f>
-        <v>0.65331630938780993</v>
+        <f xml:space="preserve"> (Y27 - B50) / (M50 - B50)</f>
+        <v>0.65576833255488087</v>
       </c>
       <c r="N71">
-        <f xml:space="preserve"> (Y28 - $B$43) / (N50 - $B$43)</f>
-        <v>0.33945399786262509</v>
+        <f xml:space="preserve"> (Y28 - B50) / (N50 - B50)</f>
+        <v>0.34618713337820944</v>
       </c>
       <c r="O71">
-        <f xml:space="preserve"> (Y29 - $B$43) / (O50 - $B$43)</f>
-        <v>0.27921623512946114</v>
+        <f xml:space="preserve"> (Y29 - B50) / (O50 - B50)</f>
+        <v>0.28452347874409556</v>
       </c>
       <c r="P71">
-        <f xml:space="preserve"> (Y30 - $B$43) / (P50 - $B$43)</f>
-        <v>0.45775310500564548</v>
+        <f xml:space="preserve"> (Y30 - B50) / (P50 - B50)</f>
+        <v>0.46044377867240893</v>
       </c>
       <c r="Q71">
-        <f xml:space="preserve"> (Y31 - $B$43) / (Q50 - $B$43)</f>
-        <v>0.75766016713091922</v>
+        <f xml:space="preserve"> (Y31 - B50) / (Q50 - B50)</f>
+        <v>0.81290322580645158</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <f xml:space="preserve"> (B17 - $B$46) / (D50 - $B$46)</f>
-        <v>0.91628916213026756</v>
+        <f xml:space="preserve"> (B17 - B50) / (C50 - B50)</f>
+        <v>0.91657498387647485</v>
       </c>
       <c r="E73">
-        <f xml:space="preserve"> (B19 - $B$46) / (E50 - $B$46)</f>
-        <v>1.6725838264299804</v>
+        <f xml:space="preserve"> (B19 - B50) / (E50 - B50)</f>
+        <v>1.5711892797319933</v>
       </c>
       <c r="F73">
-        <f xml:space="preserve"> (B20 - $B$46) / (F50 - $B$46)</f>
-        <v>1.3898207531655977</v>
+        <f xml:space="preserve"> (B20 - B50) / (F50 - B50)</f>
+        <v>1.3883837142623086</v>
       </c>
       <c r="G73">
-        <f xml:space="preserve"> (B21 - $B$46) / (G50 - $B$46)</f>
-        <v>1.0015493306891423</v>
+        <f xml:space="preserve"> (B21 - B50) / (G50 - B50)</f>
+        <v>1.0015450219393116</v>
       </c>
       <c r="H73">
-        <f xml:space="preserve"> (B22 - $B$46) / (H50 - $B$46)</f>
-        <v>1.0151678838425306</v>
+        <f xml:space="preserve"> (B22 - B50) / (H50 - B50)</f>
+        <v>1.0151091214325685</v>
       </c>
       <c r="I73">
-        <f xml:space="preserve"> (B23 - $B$46) / (I50 - $B$46)</f>
-        <v>0.88320312499999998</v>
+        <f xml:space="preserve"> (B23 - B50) / (I50 - B50)</f>
+        <v>0.88522072936660268</v>
       </c>
       <c r="J73">
-        <f xml:space="preserve"> (C16 - $B$46) / (J50 - $B$46)</f>
-        <v>1.0551235132662398</v>
+        <f xml:space="preserve"> (C16 - B50) / (J50 - B50)</f>
+        <v>1.0545619198551053</v>
       </c>
       <c r="K73">
-        <f xml:space="preserve"> (C17 - $B$46) / (K50 - $B$46)</f>
-        <v>0.87591240875912413</v>
+        <f xml:space="preserve"> (C17 - B50) / (K50 - B50)</f>
+        <v>0.88147410358565736</v>
       </c>
       <c r="L73">
-        <f xml:space="preserve"> (C18 - $B$46) / (L50 - $B$46)</f>
-        <v>0.46852911477616965</v>
+        <f xml:space="preserve"> (C18 - B50) / (L50 - B50)</f>
+        <v>0.48415550473701408</v>
       </c>
       <c r="M73">
-        <f xml:space="preserve"> (C19 - $B$46) / (M50 - $B$46)</f>
-        <v>0.82647512922064847</v>
+        <f xml:space="preserve"> (C19 - B50) / (M50 - B50)</f>
+        <v>0.82751718155734966</v>
       </c>
       <c r="N73">
-        <f xml:space="preserve"> (C20 - $B$46) / (N50 - $B$46)</f>
-        <v>0.8249102725773596</v>
+        <f xml:space="preserve"> (C20 - B50) / (N50 - B50)</f>
+        <v>0.82642561784786994</v>
       </c>
       <c r="O73">
-        <f xml:space="preserve"> (C21 - $B$46) / (O50 - $B$46)</f>
-        <v>1.2415769607157836</v>
+        <f xml:space="preserve"> (C21 - B50) / (O50 - B50)</f>
+        <v>1.2400666851903306</v>
       </c>
       <c r="P73">
-        <f xml:space="preserve"> (C22 - $B$46) / (P50 - $B$46)</f>
-        <v>0.77350507709665284</v>
+        <f xml:space="preserve"> (C22 - B50) / (P50 - B50)</f>
+        <v>0.77445932028836251</v>
       </c>
       <c r="Q73">
-        <f xml:space="preserve"> (C23 - $B$46) / (Q50 - $B$46)</f>
-        <v>1.1093333333333333</v>
+        <f xml:space="preserve"> (C23 - B50) / (Q50 - B50)</f>
+        <v>1.0881720430107527</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
@@ -3507,60 +3253,60 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <f xml:space="preserve"> (F17 - $B$46) / (D50 - $B$46)</f>
-        <v>0.89809280901442767</v>
+        <f xml:space="preserve"> (F17 - B50) / (C50 - B50)</f>
+        <v>0.898440760271634</v>
       </c>
       <c r="E74">
-        <f xml:space="preserve"> (F19 - $B$46) / (E50 - $B$46)</f>
-        <v>1.5108481262327416</v>
+        <f xml:space="preserve"> (F19 - B50) / (E50 - B50)</f>
+        <v>1.4338358458961473</v>
       </c>
       <c r="F74">
-        <f xml:space="preserve"> (F20 - $B$46) / (F50 - $B$46)</f>
-        <v>1.3944252590034534</v>
+        <f xml:space="preserve"> (F20 - B50) / (F50 - B50)</f>
+        <v>1.3929712460063899</v>
       </c>
       <c r="G74">
-        <f xml:space="preserve"> (F21 - $B$46) / (G50 - $B$46)</f>
-        <v>0.9980788299454636</v>
+        <f xml:space="preserve"> (F21 - B50) / (G50 - B50)</f>
+        <v>0.99808417279525374</v>
       </c>
       <c r="H74">
-        <f xml:space="preserve"> (F22 - $B$46) / (H50 - $B$46)</f>
-        <v>1.165550321939415</v>
+        <f xml:space="preserve"> (F22 - B50) / (H50 - B50)</f>
+        <v>1.1649089578580345</v>
       </c>
       <c r="I74">
-        <f xml:space="preserve"> (F23 - $B$46) / (I50 - $B$46)</f>
-        <v>1.0765625000000001</v>
+        <f xml:space="preserve"> (F23 - B50) / (I50 - B50)</f>
+        <v>1.0752399232245682</v>
       </c>
       <c r="J74">
-        <f xml:space="preserve"> (G16 - $B$46) / (J50 - $B$46)</f>
-        <v>1.0123513266239708</v>
+        <f xml:space="preserve"> (G16 - B50) / (J50 - B50)</f>
+        <v>1.0122254924156668</v>
       </c>
       <c r="K74">
-        <f xml:space="preserve"> (G17 - $B$46) / (K50 - $B$46)</f>
-        <v>0.99165797705943692</v>
+        <f xml:space="preserve"> (G17 - B50) / (K50 - B50)</f>
+        <v>0.99203187250996017</v>
       </c>
       <c r="L74">
-        <f xml:space="preserve"> (G18 - $B$46) / (L50 - $B$46)</f>
-        <v>0.50757320767418379</v>
+        <f xml:space="preserve"> (G18 - B50) / (L50 - B50)</f>
+        <v>0.52205161711858872</v>
       </c>
       <c r="M74">
-        <f xml:space="preserve"> (G19 - $B$46) / (M50 - $B$46)</f>
-        <v>0.76552325971672153</v>
+        <f xml:space="preserve"> (G19 - B50) / (M50 - B50)</f>
+        <v>0.7669313404950957</v>
       </c>
       <c r="N74">
-        <f xml:space="preserve"> (G20 - $B$46) / (N50 - $B$46)</f>
-        <v>0.85439906877485694</v>
+        <f xml:space="preserve"> (G20 - B50) / (N50 - B50)</f>
+        <v>0.85565919799980772</v>
       </c>
       <c r="O74">
-        <f xml:space="preserve"> (G21 - $B$46) / (O50 - $B$46)</f>
-        <v>1.3096602823989933</v>
+        <f xml:space="preserve"> (G21 - B50) / (O50 - B50)</f>
+        <v>1.3077243678799666</v>
       </c>
       <c r="P74">
-        <f xml:space="preserve"> (G22 - $B$46) / (P50 - $B$46)</f>
-        <v>0.79983076344490411</v>
+        <f xml:space="preserve"> (G22 - B50) / (P50 - B50)</f>
+        <v>0.8006740941859376</v>
       </c>
       <c r="Q74">
-        <f xml:space="preserve"> (G23 - $B$46) / (Q50 - $B$46)</f>
-        <v>1.296</v>
+        <f xml:space="preserve"> (G23 - B50) / (Q50 - B50)</f>
+        <v>1.2387096774193549</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
@@ -3568,60 +3314,60 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <f xml:space="preserve"> (P17 - $B$46) / (D50 - $B$46)</f>
-        <v>0.94910350603372795</v>
+        <f xml:space="preserve"> (P17 - B50) / (C50 - B50)</f>
+        <v>0.94927728669524636</v>
       </c>
       <c r="E75">
-        <f xml:space="preserve"> (P19 - $B$46) / (E50 - $B$46)</f>
-        <v>1.5187376725838264</v>
+        <f xml:space="preserve"> (P19 - B50) / (E50 - B50)</f>
+        <v>1.4405360134003351</v>
       </c>
       <c r="F75">
-        <f xml:space="preserve"> (P20 - $B$46) / (F50 - $B$46)</f>
-        <v>1.4215589541193883</v>
+        <f xml:space="preserve"> (P20 - B50) / (F50 - B50)</f>
+        <v>1.4200049152125829</v>
       </c>
       <c r="G75">
-        <f xml:space="preserve"> (P21 - $B$46) / (G50 - $B$46)</f>
-        <v>1.0085523054040655</v>
+        <f xml:space="preserve"> (P21 - B50) / (G50 - B50)</f>
+        <v>1.0085285211049997</v>
       </c>
       <c r="H75">
-        <f xml:space="preserve"> (P22 - $B$46) / (H50 - $B$46)</f>
-        <v>1.1480921308500065</v>
+        <f xml:space="preserve"> (P22 - B50) / (H50 - B50)</f>
+        <v>1.1475184021350782</v>
       </c>
       <c r="I75">
-        <f xml:space="preserve"> (P23 - $B$46) / (I50 - $B$46)</f>
-        <v>1.145703125</v>
+        <f xml:space="preserve"> (P23 - B50) / (I50 - B50)</f>
+        <v>1.1431861804222649</v>
       </c>
       <c r="J75">
-        <f xml:space="preserve"> (Q16 - $B$46) / (J50 - $B$46)</f>
-        <v>1.0548947849954253</v>
+        <f xml:space="preserve"> (Q16 - B50) / (J50 - B50)</f>
+        <v>1.0543355218474078</v>
       </c>
       <c r="K75">
-        <f xml:space="preserve"> (Q17 - $B$46) / (K50 - $B$46)</f>
-        <v>0.90093847758081336</v>
+        <f xml:space="preserve"> (Q17 - B50) / (K50 - B50)</f>
+        <v>0.90537848605577687</v>
       </c>
       <c r="L75">
-        <f xml:space="preserve"> (Q18 - $B$46) / (L50 - $B$46)</f>
-        <v>0.51295859979804781</v>
+        <f xml:space="preserve"> (Q18 - B50) / (L50 - B50)</f>
+        <v>0.52727866710225413</v>
       </c>
       <c r="M75">
-        <f xml:space="preserve"> (Q19 - $B$46) / (M50 - $B$46)</f>
-        <v>0.83399342149426059</v>
+        <f xml:space="preserve"> (Q19 - B50) / (M50 - B50)</f>
+        <v>0.83499032494828851</v>
       </c>
       <c r="N75">
-        <f xml:space="preserve"> (Q20 - $B$46) / (N50 - $B$46)</f>
-        <v>0.8772916868755456</v>
+        <f xml:space="preserve"> (Q20 - B50) / (N50 - B50)</f>
+        <v>0.87835368785460144</v>
       </c>
       <c r="O75">
-        <f xml:space="preserve"> (Q21 - $B$46) / (O50 - $B$46)</f>
-        <v>1.3434922410177548</v>
+        <f xml:space="preserve"> (Q21 - B50) / (O50 - B50)</f>
+        <v>1.3413448180050014</v>
       </c>
       <c r="P75">
-        <f xml:space="preserve"> (Q22 - $B$46) / (P50 - $B$46)</f>
-        <v>0.78177886423467469</v>
+        <f xml:space="preserve"> (Q22 - B50) / (P50 - B50)</f>
+        <v>0.78269824922760045</v>
       </c>
       <c r="Q75">
-        <f xml:space="preserve"> (Q23 - $B$46) / (Q50 - $B$46)</f>
-        <v>1.2693333333333334</v>
+        <f xml:space="preserve"> (Q23 - B50) / (Q50 - B50)</f>
+        <v>1.2172043010752689</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
@@ -3629,60 +3375,60 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <f xml:space="preserve"> (R25 - $B$46) / (D50 - $B$46)</f>
-        <v>0.95252959762457645</v>
+        <f xml:space="preserve"> (R25 - B50) / (C50 - B50)</f>
+        <v>0.95269168026101136</v>
       </c>
       <c r="E76">
-        <f xml:space="preserve"> (R27 - $B$46) / (E50 - $B$46)</f>
-        <v>1.6962524654832347</v>
+        <f xml:space="preserve"> (R27 - B50) / (E50 - B50)</f>
+        <v>1.5912897822445562</v>
       </c>
       <c r="F76">
-        <f xml:space="preserve"> (R28 - $B$46) / (F50 - $B$46)</f>
-        <v>1.4005097845749055</v>
+        <f xml:space="preserve"> (R28 - B50) / (F50 - B50)</f>
+        <v>1.3990333415253544</v>
       </c>
       <c r="G76">
-        <f xml:space="preserve"> (R29 - $B$46) / (G50 - $B$46)</f>
-        <v>0.99876053544868615</v>
+        <f xml:space="preserve"> (R29 - B50) / (G50 - B50)</f>
+        <v>0.9987639824485508</v>
       </c>
       <c r="H76">
-        <f xml:space="preserve"> (R30 - $B$46) / (H50 - $B$46)</f>
-        <v>1.1883669677196318</v>
+        <f xml:space="preserve"> (R30 - B50) / (H50 - B50)</f>
+        <v>1.1876372089018983</v>
       </c>
       <c r="I76">
-        <f xml:space="preserve"> (R31 - $B$46) / (I50 - $B$46)</f>
-        <v>1.127734375</v>
+        <f xml:space="preserve"> (R31 - B50) / (I50 - B50)</f>
+        <v>1.12552783109405</v>
       </c>
       <c r="J76">
-        <f xml:space="preserve"> (S24 - $B$46) / (J50 - $B$46)</f>
-        <v>1.0022872827081428</v>
+        <f xml:space="preserve"> (S24 - B50) / (J50 - B50)</f>
+        <v>1.0022639800769753</v>
       </c>
       <c r="K76">
-        <f xml:space="preserve"> (S25 - $B$46) / (K50 - $B$46)</f>
-        <v>0.959332638164755</v>
+        <f xml:space="preserve"> (S25 - B50) / (K50 - B50)</f>
+        <v>0.96115537848605581</v>
       </c>
       <c r="L76">
-        <f xml:space="preserve"> (S26 - $B$46) / (L50 - $B$46)</f>
-        <v>0.59979804779535506</v>
+        <f xml:space="preserve"> (S26 - B50) / (L50 - B50)</f>
+        <v>0.6115648480888598</v>
       </c>
       <c r="M76">
-        <f xml:space="preserve"> (S27 - $B$46) / (M50 - $B$46)</f>
-        <v>0.90380613546351618</v>
+        <f xml:space="preserve"> (S27 - B50) / (M50 - B50)</f>
+        <v>0.90438379929272039</v>
       </c>
       <c r="N76">
-        <f xml:space="preserve"> (S28 - $B$46) / (N50 - $B$46)</f>
-        <v>0.8772916868755456</v>
+        <f xml:space="preserve"> (S28 - B50) / (N50 - B50)</f>
+        <v>0.87835368785460144</v>
       </c>
       <c r="O76">
-        <f xml:space="preserve"> (S29 - $B$46) / (O50 - $B$46)</f>
-        <v>1.2995945757025025</v>
+        <f xml:space="preserve"> (S29 - B50) / (O50 - B50)</f>
+        <v>1.2977215893303695</v>
       </c>
       <c r="P76">
-        <f xml:space="preserve"> (S30 - $B$46) / (P50 - $B$46)</f>
-        <v>0.8329259119969914</v>
+        <f xml:space="preserve"> (S30 - B50) / (P50 - B50)</f>
+        <v>0.83362980994288927</v>
       </c>
       <c r="Q76">
-        <f xml:space="preserve"> (S31 - $B$46) / (Q50 - $B$46)</f>
-        <v>1.248</v>
+        <f xml:space="preserve"> (S31 - B50) / (Q50 - B50)</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
@@ -3690,60 +3436,60 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <f xml:space="preserve"> (V17 - $B$46) / (D50 - $B$46)</f>
-        <v>1.0174730671133274</v>
+        <f xml:space="preserve"> (V17 - B50) / (C50 - B50)</f>
+        <v>1.0174134071854015</v>
       </c>
       <c r="E77">
-        <f xml:space="preserve"> (V19 - $B$46) / (E50 - $B$46)</f>
-        <v>1.6291913214990139</v>
+        <f xml:space="preserve"> (V19 - B50) / (E50 - B50)</f>
+        <v>1.5343383584589614</v>
       </c>
       <c r="F77">
-        <f xml:space="preserve"> (V20 - $B$46) / (F50 - $B$46)</f>
-        <v>1.4481993093241243</v>
+        <f xml:space="preserve"> (V20 - B50) / (F50 - B50)</f>
+        <v>1.4465470631604818</v>
       </c>
       <c r="G77">
-        <f xml:space="preserve"> (V21 - $B$46) / (G50 - $B$46)</f>
-        <v>1.0448686167575607</v>
+        <f xml:space="preserve"> (V21 - B50) / (G50 - B50)</f>
+        <v>1.0447438353624621</v>
       </c>
       <c r="H77">
-        <f xml:space="preserve"> (V22 - $B$46) / (H50 - $B$46)</f>
-        <v>1.1722916036472062</v>
+        <f xml:space="preserve"> (V22 - B50) / (H50 - B50)</f>
+        <v>1.1716241229391762</v>
       </c>
       <c r="I77">
-        <f xml:space="preserve"> (V23 - $B$46) / (I50 - $B$46)</f>
-        <v>1.1714843749999999</v>
+        <f xml:space="preserve"> (V23 - B50) / (I50 - B50)</f>
+        <v>1.1685220729366603</v>
       </c>
       <c r="J77">
-        <f xml:space="preserve"> (W16 - $B$46) / (J50 - $B$46)</f>
-        <v>1.0693046660567247</v>
+        <f xml:space="preserve"> (W16 - B50) / (J50 - B50)</f>
+        <v>1.0685985963323523</v>
       </c>
       <c r="K77">
-        <f xml:space="preserve"> (W17 - $B$46) / (K50 - $B$46)</f>
-        <v>1.0917622523461941</v>
+        <f xml:space="preserve"> (W17 - B50) / (K50 - B50)</f>
+        <v>1.0876494023904382</v>
       </c>
       <c r="L77">
-        <f xml:space="preserve"> (W18 - $B$46) / (L50 - $B$46)</f>
-        <v>0.55132951868057889</v>
+        <f xml:space="preserve"> (W18 - B50) / (L50 - B50)</f>
+        <v>0.56452139823587066</v>
       </c>
       <c r="M77">
-        <f xml:space="preserve"> (W19 - $B$46) / (M50 - $B$46)</f>
-        <v>0.88447338390279917</v>
+        <f xml:space="preserve"> (W19 - B50) / (M50 - B50)</f>
+        <v>0.88516714485887771</v>
       </c>
       <c r="N77">
-        <f xml:space="preserve"> (W20 - $B$46) / (N50 - $B$46)</f>
-        <v>0.90464642545348728</v>
+        <f xml:space="preserve"> (W20 - B50) / (N50 - B50)</f>
+        <v>0.90547167996922784</v>
       </c>
       <c r="O77">
-        <f xml:space="preserve"> (W21 - $B$46) / (O50 - $B$46)</f>
-        <v>1.3906053404166083</v>
+        <f xml:space="preserve"> (W21 - B50) / (O50 - B50)</f>
+        <v>1.3881633787163101</v>
       </c>
       <c r="P77">
-        <f xml:space="preserve"> (W22 - $B$46) / (P50 - $B$46)</f>
-        <v>0.82361790146671676</v>
+        <f xml:space="preserve"> (W22 - B50) / (P50 - B50)</f>
+        <v>0.82436101488624658</v>
       </c>
       <c r="Q77">
-        <f xml:space="preserve"> (W23 - $B$46) / (Q50 - $B$46)</f>
-        <v>1.2053333333333334</v>
+        <f xml:space="preserve"> (W23 - B50) / (Q50 - B50)</f>
+        <v>1.1655913978494623</v>
       </c>
     </row>
   </sheetData>
